--- a/config/published_clades.xlsx
+++ b/config/published_clades.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msomno\Documents\GitHub\HCoV_OC43\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE5501-E155-4173-94FB-6E39895ECA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116099B1-D5CE-48A9-95E9-23C20FE6EDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{810DED4B-93A4-4169-BBE6-C2803528C88A}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{810DED4B-93A4-4169-BBE6-C2803528C88A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$341</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$B$1986</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4549" uniqueCount="2848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4819" uniqueCount="2847">
   <si>
     <t>accession</t>
   </si>
@@ -8540,45 +8541,12 @@
     <t>Vero cell adapted (VA)</t>
   </si>
   <si>
-    <t>Genotype E</t>
-  </si>
-  <si>
     <t>McClure et al 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Genotype K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genotype I </t>
-  </si>
-  <si>
-    <t>Genotype G</t>
-  </si>
-  <si>
-    <t>Genotype J</t>
-  </si>
-  <si>
-    <t>Genotype H</t>
-  </si>
-  <si>
-    <t>Genotype B</t>
-  </si>
-  <si>
     <t>Ye et al 2023</t>
   </si>
   <si>
-    <t>Genotype C</t>
-  </si>
-  <si>
-    <t>Genotype D</t>
-  </si>
-  <si>
-    <t>Genotype F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genotype A </t>
-  </si>
-  <si>
     <t>LC31564</t>
   </si>
   <si>
@@ -8588,10 +8556,40 @@
     <t>MG97745</t>
   </si>
   <si>
-    <t xml:space="preserve">Genotype G </t>
-  </si>
-  <si>
     <t>MF37498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I </t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -8655,7 +8653,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8748,8 +8756,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB904029-1464-45A5-940C-99FFB5BCDCAD}" name="metadata" displayName="metadata" ref="A1:B1986" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B1986" xr:uid="{CB904029-1464-45A5-940C-99FFB5BCDCAD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B634D830-834A-4D34-A153-E5F0F667784C}" uniqueName="1" name="accession" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CD1C453E-34C4-4DD8-8037-42F4F63826B1}" uniqueName="5" name="strain" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B634D830-834A-4D34-A153-E5F0F667784C}" uniqueName="1" name="accession" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{CD1C453E-34C4-4DD8-8037-42F4F63826B1}" uniqueName="5" name="strain" queryTableFieldId="5" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9072,10 +9080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BDE173-2FC9-4609-92DD-26580848C26D}">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:XFD214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9115,10 +9123,10 @@
         <v>2533</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -9130,10 +9138,10 @@
         <v>2563</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -9145,10 +9153,10 @@
         <v>2567</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -9160,10 +9168,10 @@
         <v>2565</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -9175,10 +9183,10 @@
         <v>2615</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -9190,10 +9198,10 @@
         <v>2531</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -9205,10 +9213,10 @@
         <v>2621</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -9220,10 +9228,10 @@
         <v>2607</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -9235,10 +9243,10 @@
         <v>2527</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -9250,10 +9258,10 @@
         <v>2629</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -9265,10 +9273,10 @@
         <v>2529</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -9280,10 +9288,10 @@
         <v>2547</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -9295,10 +9303,10 @@
         <v>2657</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -9310,10 +9318,10 @@
         <v>2611</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>2830</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -9321,7 +9329,7 @@
         <v>1750</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2830</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -9329,7 +9337,7 @@
         <v>850</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2830</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -9337,7 +9345,7 @@
         <v>830</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2830</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -9345,23 +9353,23 @@
         <v>1434</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>2830</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>2844</v>
+        <v>2833</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2830</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>2843</v>
+        <v>2832</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2830</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -9373,10 +9381,10 @@
         <v>2641</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -9388,10 +9396,10 @@
         <v>2467</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -9403,10 +9411,10 @@
         <v>2609</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -9418,10 +9426,10 @@
         <v>2549</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -9432,11 +9440,11 @@
       <c r="B26" s="5" t="s">
         <v>2623</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>2832</v>
+      <c r="C26" s="2" t="s">
+        <v>2836</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -9448,10 +9456,10 @@
         <v>2473</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -9463,10 +9471,10 @@
         <v>2465</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -9478,10 +9486,10 @@
         <v>2597</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -9493,10 +9501,10 @@
         <v>2577</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -9508,10 +9516,10 @@
         <v>2581</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -9523,10 +9531,10 @@
         <v>2591</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -9538,10 +9546,10 @@
         <v>2635</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -9553,10 +9561,10 @@
         <v>2503</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -9568,10 +9576,10 @@
         <v>2487</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -9583,10 +9591,10 @@
         <v>2497</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -9598,10 +9606,10 @@
         <v>2477</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -9613,10 +9621,10 @@
         <v>2543</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -9628,10 +9636,10 @@
         <v>2499</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -9643,10 +9651,10 @@
         <v>2571</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -9658,10 +9666,10 @@
         <v>2535</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -9673,10 +9681,10 @@
         <v>2489</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -9688,10 +9696,10 @@
         <v>2517</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -9703,10 +9711,10 @@
         <v>2493</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -9718,10 +9726,10 @@
         <v>2485</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -9733,10 +9741,10 @@
         <v>2441</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -9748,10 +9756,10 @@
         <v>2437</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -9763,10 +9771,10 @@
         <v>2451</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -9778,10 +9786,10 @@
         <v>2455</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -9793,10 +9801,10 @@
         <v>2433</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -9808,10 +9816,10 @@
         <v>2435</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -9823,10 +9831,10 @@
         <v>2439</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -9838,10 +9846,10 @@
         <v>2383</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -9853,10 +9861,10 @@
         <v>2501</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -9868,10 +9876,10 @@
         <v>2729</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -9883,10 +9891,10 @@
         <v>2719</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -9898,10 +9906,10 @@
         <v>2713</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -9913,10 +9921,10 @@
         <v>2733</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -9928,10 +9936,10 @@
         <v>2715</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -9943,10 +9951,10 @@
         <v>2655</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -9958,10 +9966,10 @@
         <v>2619</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -9973,10 +9981,10 @@
         <v>2631</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -9988,10 +9996,10 @@
         <v>2561</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -10003,10 +10011,10 @@
         <v>2723</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -10018,10 +10026,10 @@
         <v>2665</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -10033,10 +10041,10 @@
         <v>2717</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -10048,10 +10056,10 @@
         <v>2737</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -10063,10 +10071,10 @@
         <v>2697</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -10078,10 +10086,10 @@
         <v>2743</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -10093,10 +10101,10 @@
         <v>2589</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -10108,10 +10116,10 @@
         <v>2669</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -10123,10 +10131,10 @@
         <v>2707</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -10138,10 +10146,10 @@
         <v>2691</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -10153,10 +10161,10 @@
         <v>2725</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -10168,10 +10176,10 @@
         <v>2711</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -10183,10 +10191,10 @@
         <v>2693</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -10198,10 +10206,10 @@
         <v>2695</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -10213,10 +10221,10 @@
         <v>2687</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -10228,10 +10236,10 @@
         <v>2701</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -10243,10 +10251,10 @@
         <v>2731</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -10258,10 +10266,10 @@
         <v>2689</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>2833</v>
+        <v>2845</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -10273,10 +10281,10 @@
         <v>2645</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>2834</v>
+        <v>2843</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -10288,10 +10296,10 @@
         <v>2643</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>2834</v>
+        <v>2843</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -10303,10 +10311,10 @@
         <v>2513</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>2834</v>
+        <v>2843</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -10318,10 +10326,10 @@
         <v>2749</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>2834</v>
+        <v>2843</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -10333,10 +10341,10 @@
         <v>2551</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -10348,10 +10356,10 @@
         <v>2651</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -10363,10 +10371,10 @@
         <v>2703</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -10378,10 +10386,10 @@
         <v>2559</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -10393,10 +10401,10 @@
         <v>2505</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -10408,10 +10416,10 @@
         <v>2449</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -10423,10 +10431,10 @@
         <v>2419</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -10438,10 +10446,10 @@
         <v>2443</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -10453,10 +10461,10 @@
         <v>2401</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -10468,10 +10476,10 @@
         <v>2391</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -10483,10 +10491,10 @@
         <v>2397</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -10498,10 +10506,10 @@
         <v>2413</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -10513,10 +10521,10 @@
         <v>2393</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -10528,10 +10536,10 @@
         <v>2389</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -10543,10 +10551,10 @@
         <v>2387</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -10558,10 +10566,10 @@
         <v>2385</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -10573,10 +10581,10 @@
         <v>2423</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -10588,10 +10596,10 @@
         <v>2417</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -10603,10 +10611,10 @@
         <v>2415</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -10618,10 +10626,10 @@
         <v>2447</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -10633,10 +10641,10 @@
         <v>2445</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -10648,10 +10656,10 @@
         <v>2429</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -10663,10 +10671,10 @@
         <v>2431</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -10678,10 +10686,10 @@
         <v>2605</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -10693,10 +10701,10 @@
         <v>2575</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>2835</v>
+        <v>2846</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -10708,10 +10716,10 @@
         <v>1820</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>2836</v>
+        <v>2844</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -10723,10 +10731,10 @@
         <v>2050</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>2836</v>
+        <v>2844</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -10738,10 +10746,10 @@
         <v>2048</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>2836</v>
+        <v>2844</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -10753,11 +10761,11 @@
         <v>835</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -10766,7 +10774,7 @@
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E115" s="3"/>
     </row>
@@ -10779,11 +10787,11 @@
         <v>815</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -10795,11 +10803,11 @@
         <v>813</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -10811,11 +10819,11 @@
         <v>817</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -10830,7 +10838,7 @@
         <v>2839</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -10845,7 +10853,7 @@
         <v>2839</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -10860,7 +10868,7 @@
         <v>2839</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -10875,7 +10883,7 @@
         <v>2839</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -10890,7 +10898,7 @@
         <v>2839</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -10905,7 +10913,7 @@
         <v>2839</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -10920,7 +10928,7 @@
         <v>2839</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -10935,7 +10943,7 @@
         <v>2839</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -10950,7 +10958,7 @@
         <v>2839</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -10965,7 +10973,7 @@
         <v>2839</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -10980,7 +10988,7 @@
         <v>2839</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -10995,7 +11003,7 @@
         <v>2839</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -11010,7 +11018,7 @@
         <v>2839</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -11025,7 +11033,7 @@
         <v>2839</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -11040,7 +11048,7 @@
         <v>2839</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -11056,7 +11064,7 @@
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -11072,7 +11080,7 @@
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -11088,7 +11096,7 @@
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -11103,7 +11111,7 @@
         <v>2840</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -11119,7 +11127,7 @@
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -11135,7 +11143,7 @@
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -11151,7 +11159,7 @@
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -11167,7 +11175,7 @@
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -11183,7 +11191,7 @@
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -11199,7 +11207,7 @@
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -11215,7 +11223,7 @@
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -11231,7 +11239,7 @@
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -11247,7 +11255,7 @@
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -11263,7 +11271,7 @@
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -11279,7 +11287,7 @@
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -11295,7 +11303,7 @@
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -11310,7 +11318,7 @@
         <v>2840</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -11325,7 +11333,7 @@
         <v>2840</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -11340,7 +11348,7 @@
         <v>2840</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -11355,7 +11363,7 @@
         <v>2840</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -11370,7 +11378,7 @@
         <v>2840</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -11385,7 +11393,7 @@
         <v>2840</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -11400,7 +11408,7 @@
         <v>2840</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -11416,7 +11424,7 @@
       </c>
       <c r="D157" s="4"/>
       <c r="F157" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -11431,7 +11439,7 @@
         <v>2840</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -11443,11 +11451,11 @@
         <v>833</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -11459,10 +11467,10 @@
         <v>1421</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -11474,11 +11482,11 @@
         <v>845</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -11490,10 +11498,10 @@
         <v>1409</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -11505,10 +11513,10 @@
         <v>1425</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -11520,10 +11528,10 @@
         <v>1417</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -11535,10 +11543,10 @@
         <v>1413</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -11550,10 +11558,10 @@
         <v>1419</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -11565,10 +11573,10 @@
         <v>1407</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -11580,10 +11588,10 @@
         <v>1405</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -11595,10 +11603,10 @@
         <v>1401</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>2838</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -11606,7 +11614,7 @@
         <v>470</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -11614,7 +11622,7 @@
         <v>460</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -11622,7 +11630,7 @@
         <v>469</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -11630,7 +11638,7 @@
         <v>466</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -11638,7 +11646,7 @@
         <v>443</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -11646,7 +11654,7 @@
         <v>468</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -11654,7 +11662,7 @@
         <v>458</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -11662,7 +11670,7 @@
         <v>473</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -11670,7 +11678,7 @@
         <v>480</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -11678,7 +11686,7 @@
         <v>457</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -11686,7 +11694,7 @@
         <v>456</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -11694,7 +11702,7 @@
         <v>449</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -11702,7 +11710,7 @@
         <v>444</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -11710,7 +11718,7 @@
         <v>448</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -11718,7 +11726,7 @@
         <v>461</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -11726,7 +11734,7 @@
         <v>447</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -11734,7 +11742,7 @@
         <v>475</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -11742,7 +11750,7 @@
         <v>463</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -11750,15 +11758,15 @@
         <v>455</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>2845</v>
+        <v>2834</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -11766,7 +11774,7 @@
         <v>1787</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -11774,7 +11782,7 @@
         <v>1811</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -11782,7 +11790,7 @@
         <v>1410</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -11790,7 +11798,7 @@
         <v>846</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -11798,7 +11806,7 @@
         <v>1398</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -11806,7 +11814,7 @@
         <v>1422</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -11814,7 +11822,7 @@
         <v>1457</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -11822,7 +11830,7 @@
         <v>1428</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -11830,7 +11838,7 @@
         <v>1459</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -11838,7 +11846,7 @@
         <v>2098</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -11846,7 +11854,7 @@
         <v>2100</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -11854,7 +11862,7 @@
         <v>2047</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -11862,7 +11870,7 @@
         <v>842</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -11870,7 +11878,7 @@
         <v>2046</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -11878,15 +11886,15 @@
         <v>2033</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>2847</v>
+        <v>2835</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -11894,19 +11902,1103 @@
         <v>1450</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>2830</v>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>2836</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C341" xr:uid="{44BDE173-2FC9-4609-92DD-26580848C26D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A205 A207:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A1048576 A1:A188 A201">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A342:A1048576 A311 A1:A205 A209 A227:A231 A242 A244 A246 A252:A254 A256 A261 A263:A264 A269 A273:A274 A276 A279 A282 A284 A288 A294 A296 A299:A300 A305">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A1048576 A201 A1:A15 A22:A169">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="A342:A1048576 A311 A209 A1:A188 A201 A227:A231 A242 A244 A246 A252:A254 A256 A261 A263:A264 A269 A273:A274 A276 A279 A282 A284 A288 A294 A296 A299:A300 A305">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A342:A1048576 A311 A209 A201 A1:A15 A22:A169 A227:A231 A242 A244 A246 A252:A254 A256 A261 A263:A264 A269 A273:A274 A276 A279 A282 A284 A288 A294 A296 A299:A300 A305">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
